--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TonyMason\Dropbox (Personal)\tony\research\perc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726A9C8A-CB6D-497B-9C5D-95821A1C056F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7138F037-E853-48BE-95F9-D93F268F599F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23858" windowHeight="12750" firstSheet="1" activeTab="10" xr2:uid="{DDF11B55-9692-4DEB-8CAB-1DFB370BF851}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23858" windowHeight="12750" activeTab="9" xr2:uid="{DDF11B55-9692-4DEB-8CAB-1DFB370BF851}"/>
   </bookViews>
   <sheets>
     <sheet name="test 1" sheetId="1" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'test 1'!$H$7</c15:sqref>
@@ -1204,7 +1204,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'test 1'!$I$2:$O$2</c15:sqref>
@@ -1240,7 +1240,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'test 1'!$I$7:$O$7</c15:sqref>
@@ -1275,7 +1275,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-21F0-4271-9116-E115E9E376EE}"/>
                   </c:ext>
@@ -3822,7 +3822,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>SFGENCE period (once per </a:t>
+                  <a:t>SFENCE period (once per </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" i="1"/>
@@ -13759,40 +13759,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>114.42</c:v>
+                  <c:v>28.605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.64</c:v>
+                  <c:v>23.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.88</c:v>
+                  <c:v>18.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.88</c:v>
+                  <c:v>18.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.78</c:v>
+                  <c:v>18.945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.84</c:v>
+                  <c:v>18.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.959999999999994</c:v>
+                  <c:v>18.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.78</c:v>
+                  <c:v>18.945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.8</c:v>
+                  <c:v>18.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.88</c:v>
+                  <c:v>18.97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.64</c:v>
+                  <c:v>18.91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.14</c:v>
+                  <c:v>19.035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13882,40 +13882,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>190.12</c:v>
+                  <c:v>31.686666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.32</c:v>
+                  <c:v>25.386666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.91999999999999</c:v>
+                  <c:v>22.153333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.68</c:v>
+                  <c:v>22.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.72</c:v>
+                  <c:v>18.953333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.32</c:v>
+                  <c:v>19.053333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.72</c:v>
+                  <c:v>19.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.94</c:v>
+                  <c:v>18.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.26</c:v>
+                  <c:v>19.043333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.9</c:v>
+                  <c:v>18.983333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.30000000000001</c:v>
+                  <c:v>22.716666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.9</c:v>
+                  <c:v>19.816666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14005,40 +14005,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>220.24</c:v>
+                  <c:v>27.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172.76</c:v>
+                  <c:v>21.594999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.16</c:v>
+                  <c:v>19.645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.5</c:v>
+                  <c:v>17.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.94</c:v>
+                  <c:v>17.7425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.41999999999999</c:v>
+                  <c:v>17.677499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126.06</c:v>
+                  <c:v>15.7575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.1</c:v>
+                  <c:v>15.762499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>125.52</c:v>
+                  <c:v>15.69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125.62</c:v>
+                  <c:v>15.702500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14128,40 +14128,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>579.52</c:v>
+                  <c:v>48.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>377.86</c:v>
+                  <c:v>31.488333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.32</c:v>
+                  <c:v>41.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330.28</c:v>
+                  <c:v>27.52333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>324.86</c:v>
+                  <c:v>27.071666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>327.54000000000002</c:v>
+                  <c:v>27.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>248.16</c:v>
+                  <c:v>20.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>266.48</c:v>
+                  <c:v>22.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>317.08</c:v>
+                  <c:v>26.423333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227.96</c:v>
+                  <c:v>18.996666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>261.62</c:v>
+                  <c:v>21.801666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>398.04</c:v>
+                  <c:v>33.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14251,40 +14251,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>569.24</c:v>
+                  <c:v>35.577500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438.22</c:v>
+                  <c:v>27.388750000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>381.04</c:v>
+                  <c:v>23.815000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362.3</c:v>
+                  <c:v>22.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343.16</c:v>
+                  <c:v>21.447500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>343.44</c:v>
+                  <c:v>21.465</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344.2</c:v>
+                  <c:v>21.512499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>325.45999999999998</c:v>
+                  <c:v>20.341249999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>303.89999999999998</c:v>
+                  <c:v>18.993749999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.08</c:v>
+                  <c:v>19.004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>304.62</c:v>
+                  <c:v>19.03875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>304.54000000000002</c:v>
+                  <c:v>19.033750000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14374,40 +14374,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1459.46</c:v>
+                  <c:v>45.608125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>898.62</c:v>
+                  <c:v>28.081875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>798.48</c:v>
+                  <c:v>24.952500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>742.36</c:v>
+                  <c:v>23.19875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>743.8</c:v>
+                  <c:v>23.243749999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>708.08</c:v>
+                  <c:v>22.127500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>686.98</c:v>
+                  <c:v>21.468125000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>667.48</c:v>
+                  <c:v>20.858750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>628.08000000000004</c:v>
+                  <c:v>19.627500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>611.4</c:v>
+                  <c:v>19.106249999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>611.98</c:v>
+                  <c:v>19.124375000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>612.54</c:v>
+                  <c:v>19.141874999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14499,40 +14499,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7230.02</c:v>
+                  <c:v>112.96906250000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000.62</c:v>
+                  <c:v>46.884687499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1812.18</c:v>
+                  <c:v>28.315312500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1511.26</c:v>
+                  <c:v>23.6134375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1515.04</c:v>
+                  <c:v>23.672499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1420.28</c:v>
+                  <c:v>22.191875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1375.8</c:v>
+                  <c:v>21.496874999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1357.02</c:v>
+                  <c:v>21.2034375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1281.8</c:v>
+                  <c:v>20.028124999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1240.98</c:v>
+                  <c:v>19.3903125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1234.46</c:v>
+                  <c:v>19.288437500000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1227.06</c:v>
+                  <c:v>19.172812499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15022,40 +15022,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>114.22</c:v>
+                  <c:v>28.555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.5</c:v>
+                  <c:v>23.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.08</c:v>
+                  <c:v>19.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.12</c:v>
+                  <c:v>19.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.92</c:v>
+                  <c:v>18.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.819999999999993</c:v>
+                  <c:v>18.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.760000000000005</c:v>
+                  <c:v>18.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.98</c:v>
+                  <c:v>18.995000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.44</c:v>
+                  <c:v>19.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.52</c:v>
+                  <c:v>18.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.34</c:v>
+                  <c:v>19.085000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.22</c:v>
+                  <c:v>19.055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15145,40 +15145,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>189.74</c:v>
+                  <c:v>31.623333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.6</c:v>
+                  <c:v>25.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.84</c:v>
+                  <c:v>22.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.1</c:v>
+                  <c:v>22.183333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.14</c:v>
+                  <c:v>19.023333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.96</c:v>
+                  <c:v>18.993333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.32</c:v>
+                  <c:v>19.053333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.34</c:v>
+                  <c:v>19.056666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.04</c:v>
+                  <c:v>19.006666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.54</c:v>
+                  <c:v>19.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.34</c:v>
+                  <c:v>22.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.62</c:v>
+                  <c:v>19.936666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15268,40 +15268,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>221.08</c:v>
+                  <c:v>27.635000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172.94</c:v>
+                  <c:v>21.6175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.24</c:v>
+                  <c:v>19.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.08000000000001</c:v>
+                  <c:v>17.760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.24</c:v>
+                  <c:v>17.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.68</c:v>
+                  <c:v>17.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.16</c:v>
+                  <c:v>15.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.82</c:v>
+                  <c:v>15.727499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.88</c:v>
+                  <c:v>15.734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.2</c:v>
+                  <c:v>15.775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.16</c:v>
+                  <c:v>15.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125.86</c:v>
+                  <c:v>15.7325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15391,40 +15391,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>418.32</c:v>
+                  <c:v>34.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322.7</c:v>
+                  <c:v>26.891666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286.04000000000002</c:v>
+                  <c:v>23.83666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265.94</c:v>
+                  <c:v>22.161666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266.48</c:v>
+                  <c:v>22.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.26</c:v>
+                  <c:v>20.521666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246.7</c:v>
+                  <c:v>20.558333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>247.36</c:v>
+                  <c:v>20.613333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227.88</c:v>
+                  <c:v>18.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.6</c:v>
+                  <c:v>19.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>227.76</c:v>
+                  <c:v>18.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>227.58</c:v>
+                  <c:v>18.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15514,40 +15514,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>570.84</c:v>
+                  <c:v>35.677500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437.12</c:v>
+                  <c:v>27.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.22</c:v>
+                  <c:v>23.763750000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361.1</c:v>
+                  <c:v>22.568750000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.62</c:v>
+                  <c:v>21.41375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>342.6</c:v>
+                  <c:v>21.412500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343</c:v>
+                  <c:v>21.4375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>323.82</c:v>
+                  <c:v>20.23875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.27999999999997</c:v>
+                  <c:v>19.017499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.18</c:v>
+                  <c:v>19.01125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>302.77999999999997</c:v>
+                  <c:v>18.923749999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>304.44</c:v>
+                  <c:v>19.0275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15637,40 +15637,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1180.42</c:v>
+                  <c:v>36.888125000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>909.04</c:v>
+                  <c:v>28.407499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>803.56</c:v>
+                  <c:v>25.111249999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.52</c:v>
+                  <c:v>23.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>778.6</c:v>
+                  <c:v>24.331250000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>704.48</c:v>
+                  <c:v>22.015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>684.76</c:v>
+                  <c:v>21.39875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>665.74</c:v>
+                  <c:v>20.804375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>628.24</c:v>
+                  <c:v>19.6325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>614.22</c:v>
+                  <c:v>19.194375000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>611.16</c:v>
+                  <c:v>19.098749999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>612.98</c:v>
+                  <c:v>19.155625000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15762,40 +15762,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2513</c:v>
+                  <c:v>39.265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1894</c:v>
+                  <c:v>29.59375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1611.58</c:v>
+                  <c:v>25.180937499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1509.7</c:v>
+                  <c:v>23.589062500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1457.42</c:v>
+                  <c:v>22.772187500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1474.34</c:v>
+                  <c:v>23.036562499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1375.98</c:v>
+                  <c:v>21.4996875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1356.32</c:v>
+                  <c:v>21.192499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1277.44</c:v>
+                  <c:v>19.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1300.2</c:v>
+                  <c:v>20.315625000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1218.78</c:v>
+                  <c:v>19.0434375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215.8</c:v>
+                  <c:v>18.996874999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23643,16 +23643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>531017</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578642</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95247</xdr:rowOff>
+      <xdr:rowOff>119059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23679,16 +23679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>373856</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23730,8 +23730,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23759,15 +23759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23915,10 +23915,10 @@
     <tableColumn id="2" xr3:uid="{3A295B23-E31E-4B8F-8344-410FD65D316A}" uniqueName="2" name="Test" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{198B8ABA-4241-4ADA-9F57-FF2F0059BD77}" uniqueName="3" name="cache" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{C25E7DB7-1F81-4866-92CD-1CF13B60A51A}" uniqueName="4" name="Time (100 Runs)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7FD2B173-5782-4E41-8A0C-6ACEFAE1001E}" uniqueName="5" name="Time Per Run" queryTableFieldId="5" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{7FD2B173-5782-4E41-8A0C-6ACEFAE1001E}" uniqueName="5" name="Time Per Run" queryTableFieldId="5" dataDxfId="4">
       <calculatedColumnFormula>test9A[[#This Row],[Time (100 Runs)]]/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A395B703-C969-4E7E-8996-BEEB6C52F25F}" uniqueName="6" name="Time Per Run, Per Element" queryTableFieldId="6" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{A395B703-C969-4E7E-8996-BEEB6C52F25F}" uniqueName="6" name="Time Per Run, Per Element" queryTableFieldId="6" dataDxfId="3">
       <calculatedColumnFormula>test9A[[#This Row],[Time Per Run]]/test9A[[#This Row],[Page Count]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23937,9 +23937,9 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{84F2CED3-6DAB-4EEF-BF79-C20F7BED12B0}" uniqueName="1" name="Page Count" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{B974885E-170D-4307-AAEF-4EDD25A49918}" uniqueName="2" name="Test" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B974885E-170D-4307-AAEF-4EDD25A49918}" uniqueName="2" name="Test" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{C72DEC88-A1F8-40BD-91E5-796739666548}" uniqueName="3" name="Fence Period" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7B945604-9222-4C47-9E06-B3F787318D52}" uniqueName="4" name="cache" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7B945604-9222-4C47-9E06-B3F787318D52}" uniqueName="4" name="cache" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{659B2F44-99FC-419F-AD61-C8AC9991E34F}" uniqueName="5" name="Time (100 Runs)" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{0742F811-F41D-4015-AF11-C776F0BB2927}" uniqueName="6" name="Time Per Run" queryTableFieldId="6" dataDxfId="0">
       <calculatedColumnFormula>test9B__2[[#This Row],[Time (100 Runs)]]/100</calculatedColumnFormula>
@@ -24340,7 +24340,7 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G50" si="1">D3/C3</f>
+        <f t="shared" ref="F3:F50" si="1">D3/C3</f>
         <v>16.013333333333332</v>
       </c>
       <c r="G3">
@@ -25703,8 +25703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F345F6-30B4-4E51-B265-953BE7BA2275}">
   <dimension ref="A3:U170"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30873,7 +30873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18103467-FD3D-4FAB-9D44-6B842D7CADF6}">
   <dimension ref="A2:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="I32" sqref="I32:U39"/>
     </sheetView>
   </sheetViews>
@@ -36076,7 +36076,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <f>C2*4096</f>
+        <f t="shared" ref="B2:B36" si="0">C2*4096</f>
         <v>16384</v>
       </c>
       <c r="C2">
@@ -36116,7 +36116,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f>C3*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C3">
@@ -36129,7 +36129,7 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G36" si="0">D3/C3</f>
+        <f t="shared" ref="F3:F36" si="1">D3/C3</f>
         <v>494.36666666666662</v>
       </c>
       <c r="G3">
@@ -36159,7 +36159,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>C4*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C4">
@@ -36172,7 +36172,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>470.54</v>
       </c>
       <c r="G4">
@@ -36202,7 +36202,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>C5*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C5">
@@ -36215,7 +36215,7 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>383.47666666666669</v>
       </c>
       <c r="G5">
@@ -36245,7 +36245,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>C6*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C6">
@@ -36258,7 +36258,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>948.50874999999996</v>
       </c>
       <c r="G6">
@@ -36288,7 +36288,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>C7*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C7">
@@ -36301,7 +36301,7 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>620.09500000000003</v>
       </c>
       <c r="G7">
@@ -36331,7 +36331,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f>C8*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C8">
@@ -36344,7 +36344,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>438.57593750000001</v>
       </c>
       <c r="G8">
@@ -36374,7 +36374,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <f>C9*4096</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="C9">
@@ -36387,7 +36387,7 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1445.3</v>
       </c>
       <c r="G9">
@@ -36417,7 +36417,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>C10*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C10">
@@ -36430,7 +36430,7 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>444.50666666666666</v>
       </c>
       <c r="G10">
@@ -36442,7 +36442,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>C11*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C11">
@@ -36455,7 +36455,7 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.08</v>
       </c>
       <c r="G11">
@@ -36467,7 +36467,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <f>C12*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C12">
@@ -36480,7 +36480,7 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.023333333333326</v>
       </c>
       <c r="G12">
@@ -36492,7 +36492,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <f>C13*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C13">
@@ -36505,7 +36505,7 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>376.28250000000003</v>
       </c>
       <c r="G13">
@@ -36517,7 +36517,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <f>C14*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C14">
@@ -36530,7 +36530,7 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.643749999999997</v>
       </c>
       <c r="G14">
@@ -36542,7 +36542,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <f>C15*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C15">
@@ -36555,7 +36555,7 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.924062499999998</v>
       </c>
       <c r="G15">
@@ -36567,7 +36567,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>C16*4096</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="C16">
@@ -36580,7 +36580,7 @@
         <v>100</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>572.33500000000004</v>
       </c>
       <c r="G16">
@@ -36592,7 +36592,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <f>C17*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C17">
@@ -36605,7 +36605,7 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277.06666666666666</v>
       </c>
       <c r="G17">
@@ -36617,7 +36617,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <f>C18*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C18">
@@ -36630,7 +36630,7 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.98</v>
       </c>
       <c r="G18">
@@ -36642,7 +36642,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <f>C19*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C19">
@@ -36655,7 +36655,7 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5028.3483333333334</v>
       </c>
       <c r="G19">
@@ -36667,7 +36667,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f>C20*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C20">
@@ -36680,7 +36680,7 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>334.97125</v>
       </c>
       <c r="G20">
@@ -36692,7 +36692,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <f>C21*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C21">
@@ -36705,7 +36705,7 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.498750000000001</v>
       </c>
       <c r="G21">
@@ -36717,7 +36717,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <f>C22*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C22">
@@ -36730,7 +36730,7 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.141249999999999</v>
       </c>
       <c r="G22">
@@ -36742,7 +36742,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <f>C23*4096</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="C23">
@@ -36755,7 +36755,7 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.86</v>
       </c>
       <c r="G23">
@@ -36767,7 +36767,7 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <f>C24*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C24">
@@ -36780,7 +36780,7 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.663333333333341</v>
       </c>
       <c r="G24">
@@ -36792,7 +36792,7 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <f>C25*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C25">
@@ -36805,7 +36805,7 @@
         <v>100</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.96</v>
       </c>
       <c r="G25">
@@ -36817,7 +36817,7 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <f>C26*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C26">
@@ -36830,7 +36830,7 @@
         <v>100</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.314999999999998</v>
       </c>
       <c r="G26">
@@ -36842,7 +36842,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <f>C27*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C27">
@@ -36855,7 +36855,7 @@
         <v>100</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195.98750000000001</v>
       </c>
       <c r="G27">
@@ -36867,7 +36867,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <f>C28*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C28">
@@ -36880,7 +36880,7 @@
         <v>100</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165.386875</v>
       </c>
       <c r="G28">
@@ -36892,7 +36892,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <f>C29*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C29">
@@ -36905,7 +36905,7 @@
         <v>100</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.60125</v>
       </c>
       <c r="G29">
@@ -36917,7 +36917,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <f>C30*4096</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="C30">
@@ -36930,7 +36930,7 @@
         <v>100</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>167.7</v>
       </c>
       <c r="G30">
@@ -36942,7 +36942,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>C31*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C31">
@@ -36955,7 +36955,7 @@
         <v>100</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.08000000000001</v>
       </c>
       <c r="G31">
@@ -36967,7 +36967,7 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <f>C32*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C32">
@@ -36980,7 +36980,7 @@
         <v>100</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.462499999999999</v>
       </c>
       <c r="G32">
@@ -36992,7 +36992,7 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <f>C33*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C33">
@@ -37005,7 +37005,7 @@
         <v>100</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.794999999999995</v>
       </c>
       <c r="G33">
@@ -37017,7 +37017,7 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <f>C34*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C34">
@@ -37030,7 +37030,7 @@
         <v>100</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>344.04874999999998</v>
       </c>
       <c r="G34">
@@ -37042,7 +37042,7 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <f>C35*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C35">
@@ -37055,7 +37055,7 @@
         <v>100</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>174.35187500000001</v>
       </c>
       <c r="G35">
@@ -37067,7 +37067,7 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <f>C36*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C36">
@@ -37080,7 +37080,7 @@
         <v>100</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.918437500000003</v>
       </c>
       <c r="G36">
@@ -37133,7 +37133,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <f>C2*4096</f>
+        <f t="shared" ref="B2:B8" si="0">C2*4096</f>
         <v>16384</v>
       </c>
       <c r="C2">
@@ -37151,7 +37151,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>C3*4096</f>
+        <f t="shared" si="0"/>
         <v>24576</v>
       </c>
       <c r="C3">
@@ -37169,7 +37169,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <f>C4*4096</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C4">
@@ -37187,7 +37187,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>C5*4096</f>
+        <f t="shared" si="0"/>
         <v>49152</v>
       </c>
       <c r="C5">
@@ -37205,7 +37205,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <f>C6*4096</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="C6">
@@ -37223,7 +37223,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <f>C7*4096</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="C7">
@@ -37241,7 +37241,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <f>C8*4096</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="C8">
@@ -37824,7 +37824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75DC10A-9EF3-481A-AE97-6FF3FB717296}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="C93" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="C61" zoomScale="86" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -54493,7 +54493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280ECB2C-D857-45AE-B69A-B8C297849328}">
   <dimension ref="A4:V173"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
@@ -57186,7 +57186,7 @@
         <v>95.34</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91:H154" si="2">F91/A91</f>
+        <f t="shared" ref="G91:G154" si="2">F91/A91</f>
         <v>23.835000000000001</v>
       </c>
       <c r="H91">
@@ -58914,7 +58914,7 @@
         <v>701.94</v>
       </c>
       <c r="G155">
-        <f t="shared" ref="G155:H173" si="3">F155/A155</f>
+        <f t="shared" ref="G155:G173" si="3">F155/A155</f>
         <v>21.935625000000002</v>
       </c>
       <c r="H155">
@@ -59418,14 +59418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82B3E8B-8F4A-4C7C-AB46-DA7D66AA71AF}">
   <dimension ref="A3:U171"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:U59"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -59447,6 +59448,13 @@
       <c r="F3">
         <v>114.42</v>
       </c>
+      <c r="G3">
+        <f>F3/A3</f>
+        <v>28.605</v>
+      </c>
+      <c r="H3">
+        <v>28.605</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -59503,44 +59511,51 @@
       <c r="F4">
         <v>94.64</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:H67" si="0">F4/A4</f>
+        <v>23.66</v>
+      </c>
+      <c r="H4">
+        <v>23.66</v>
+      </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>114.42</v>
+        <v>28.605</v>
       </c>
       <c r="K4">
-        <v>94.64</v>
+        <v>23.66</v>
       </c>
       <c r="L4">
-        <v>75.88</v>
+        <v>18.97</v>
       </c>
       <c r="M4">
-        <v>75.88</v>
+        <v>18.97</v>
       </c>
       <c r="N4">
-        <v>75.78</v>
+        <v>18.945</v>
       </c>
       <c r="O4">
-        <v>75.84</v>
+        <v>18.96</v>
       </c>
       <c r="P4">
-        <v>75.959999999999994</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="Q4">
-        <v>75.78</v>
+        <v>18.945</v>
       </c>
       <c r="R4">
-        <v>75.8</v>
+        <v>18.95</v>
       </c>
       <c r="S4">
-        <v>75.88</v>
+        <v>18.97</v>
       </c>
       <c r="T4">
-        <v>75.64</v>
+        <v>18.91</v>
       </c>
       <c r="U4">
-        <v>76.14</v>
+        <v>19.035</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -59562,44 +59577,51 @@
       <c r="F5">
         <v>75.88</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>18.97</v>
+      </c>
+      <c r="H5">
+        <v>18.97</v>
+      </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5">
-        <v>190.12</v>
+        <v>31.686666666666667</v>
       </c>
       <c r="K5">
-        <v>152.32</v>
+        <v>25.386666666666667</v>
       </c>
       <c r="L5">
-        <v>132.91999999999999</v>
+        <v>22.153333333333332</v>
       </c>
       <c r="M5">
-        <v>133.68</v>
+        <v>22.28</v>
       </c>
       <c r="N5">
-        <v>113.72</v>
+        <v>18.953333333333333</v>
       </c>
       <c r="O5">
-        <v>114.32</v>
+        <v>19.053333333333331</v>
       </c>
       <c r="P5">
-        <v>114.72</v>
+        <v>19.12</v>
       </c>
       <c r="Q5">
-        <v>113.94</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="R5">
-        <v>114.26</v>
+        <v>19.043333333333333</v>
       </c>
       <c r="S5">
-        <v>113.9</v>
+        <v>18.983333333333334</v>
       </c>
       <c r="T5">
-        <v>136.30000000000001</v>
+        <v>22.716666666666669</v>
       </c>
       <c r="U5">
-        <v>118.9</v>
+        <v>19.816666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -59621,44 +59643,51 @@
       <c r="F6">
         <v>75.88</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>18.97</v>
+      </c>
+      <c r="H6">
+        <v>18.97</v>
+      </c>
       <c r="I6">
         <v>8</v>
       </c>
       <c r="J6">
-        <v>220.24</v>
+        <v>27.53</v>
       </c>
       <c r="K6">
-        <v>172.76</v>
+        <v>21.594999999999999</v>
       </c>
       <c r="L6">
-        <v>157.16</v>
+        <v>19.645</v>
       </c>
       <c r="M6">
-        <v>141.5</v>
+        <v>17.6875</v>
       </c>
       <c r="N6">
-        <v>141.94</v>
+        <v>17.7425</v>
       </c>
       <c r="O6">
-        <v>141.41999999999999</v>
+        <v>17.677499999999998</v>
       </c>
       <c r="P6">
-        <v>126</v>
+        <v>15.75</v>
       </c>
       <c r="Q6">
-        <v>126.06</v>
+        <v>15.7575</v>
       </c>
       <c r="R6">
-        <v>126.1</v>
+        <v>15.762499999999999</v>
       </c>
       <c r="S6">
-        <v>125.52</v>
+        <v>15.69</v>
       </c>
       <c r="T6">
-        <v>126</v>
+        <v>15.75</v>
       </c>
       <c r="U6">
-        <v>125.62</v>
+        <v>15.702500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -59680,44 +59709,51 @@
       <c r="F7">
         <v>75.78</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>18.945</v>
+      </c>
+      <c r="H7">
+        <v>18.945</v>
+      </c>
       <c r="I7">
         <v>12</v>
       </c>
       <c r="J7">
-        <v>579.52</v>
+        <v>48.293333333333329</v>
       </c>
       <c r="K7">
-        <v>377.86</v>
+        <v>31.488333333333333</v>
       </c>
       <c r="L7">
-        <v>493.32</v>
+        <v>41.11</v>
       </c>
       <c r="M7">
-        <v>330.28</v>
+        <v>27.52333333333333</v>
       </c>
       <c r="N7">
-        <v>324.86</v>
+        <v>27.071666666666669</v>
       </c>
       <c r="O7">
-        <v>327.54000000000002</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="P7">
-        <v>248.16</v>
+        <v>20.68</v>
       </c>
       <c r="Q7">
-        <v>266.48</v>
+        <v>22.206666666666667</v>
       </c>
       <c r="R7">
-        <v>317.08</v>
+        <v>26.423333333333332</v>
       </c>
       <c r="S7">
-        <v>227.96</v>
+        <v>18.996666666666666</v>
       </c>
       <c r="T7">
-        <v>261.62</v>
+        <v>21.801666666666666</v>
       </c>
       <c r="U7">
-        <v>398.04</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
@@ -59739,44 +59775,51 @@
       <c r="F8">
         <v>75.84</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>18.96</v>
+      </c>
+      <c r="H8">
+        <v>18.96</v>
+      </c>
       <c r="I8">
         <v>16</v>
       </c>
       <c r="J8">
-        <v>569.24</v>
+        <v>35.577500000000001</v>
       </c>
       <c r="K8">
-        <v>438.22</v>
+        <v>27.388750000000002</v>
       </c>
       <c r="L8">
-        <v>381.04</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="M8">
-        <v>362.3</v>
+        <v>22.643750000000001</v>
       </c>
       <c r="N8">
-        <v>343.16</v>
+        <v>21.447500000000002</v>
       </c>
       <c r="O8">
-        <v>343.44</v>
+        <v>21.465</v>
       </c>
       <c r="P8">
-        <v>344.2</v>
+        <v>21.512499999999999</v>
       </c>
       <c r="Q8">
-        <v>325.45999999999998</v>
+        <v>20.341249999999999</v>
       </c>
       <c r="R8">
-        <v>303.89999999999998</v>
+        <v>18.993749999999999</v>
       </c>
       <c r="S8">
-        <v>304.08</v>
+        <v>19.004999999999999</v>
       </c>
       <c r="T8">
-        <v>304.62</v>
+        <v>19.03875</v>
       </c>
       <c r="U8">
-        <v>304.54000000000002</v>
+        <v>19.033750000000001</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -59798,44 +59841,51 @@
       <c r="F9">
         <v>75.959999999999994</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H9">
+        <v>18.989999999999998</v>
+      </c>
       <c r="I9">
         <v>32</v>
       </c>
       <c r="J9">
-        <v>1459.46</v>
+        <v>45.608125000000001</v>
       </c>
       <c r="K9">
-        <v>898.62</v>
+        <v>28.081875</v>
       </c>
       <c r="L9">
-        <v>798.48</v>
+        <v>24.952500000000001</v>
       </c>
       <c r="M9">
-        <v>742.36</v>
+        <v>23.19875</v>
       </c>
       <c r="N9">
-        <v>743.8</v>
+        <v>23.243749999999999</v>
       </c>
       <c r="O9">
-        <v>708.08</v>
+        <v>22.127500000000001</v>
       </c>
       <c r="P9">
-        <v>686.98</v>
+        <v>21.468125000000001</v>
       </c>
       <c r="Q9">
-        <v>667.48</v>
+        <v>20.858750000000001</v>
       </c>
       <c r="R9">
-        <v>628.08000000000004</v>
+        <v>19.627500000000001</v>
       </c>
       <c r="S9">
-        <v>611.4</v>
+        <v>19.106249999999999</v>
       </c>
       <c r="T9">
-        <v>611.98</v>
+        <v>19.124375000000001</v>
       </c>
       <c r="U9">
-        <v>612.54</v>
+        <v>19.141874999999999</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -59857,44 +59907,51 @@
       <c r="F10">
         <v>75.78</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>18.945</v>
+      </c>
+      <c r="H10">
+        <v>18.945</v>
+      </c>
       <c r="I10">
         <v>64</v>
       </c>
       <c r="J10">
-        <v>7230.02</v>
+        <v>112.96906250000001</v>
       </c>
       <c r="K10">
-        <v>3000.62</v>
+        <v>46.884687499999998</v>
       </c>
       <c r="L10">
-        <v>1812.18</v>
+        <v>28.315312500000001</v>
       </c>
       <c r="M10">
-        <v>1511.26</v>
+        <v>23.6134375</v>
       </c>
       <c r="N10">
-        <v>1515.04</v>
+        <v>23.672499999999999</v>
       </c>
       <c r="O10">
-        <v>1420.28</v>
+        <v>22.191875</v>
       </c>
       <c r="P10">
-        <v>1375.8</v>
+        <v>21.496874999999999</v>
       </c>
       <c r="Q10">
-        <v>1357.02</v>
+        <v>21.2034375</v>
       </c>
       <c r="R10">
-        <v>1281.8</v>
+        <v>20.028124999999999</v>
       </c>
       <c r="S10">
-        <v>1240.98</v>
+        <v>19.3903125</v>
       </c>
       <c r="T10">
-        <v>1234.46</v>
+        <v>19.288437500000001</v>
       </c>
       <c r="U10">
-        <v>1227.06</v>
+        <v>19.172812499999999</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
@@ -59916,6 +59973,13 @@
       <c r="F11">
         <v>75.8</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>18.95</v>
+      </c>
+      <c r="H11">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -59936,6 +60000,13 @@
       <c r="F12">
         <v>75.88</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>18.97</v>
+      </c>
+      <c r="H12">
+        <v>18.97</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -59956,6 +60027,13 @@
       <c r="F13">
         <v>75.64</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>18.91</v>
+      </c>
+      <c r="H13">
+        <v>18.91</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -59976,6 +60054,13 @@
       <c r="F14">
         <v>76.14</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>19.035</v>
+      </c>
+      <c r="H14">
+        <v>19.035</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -59996,6 +60081,13 @@
       <c r="F15">
         <v>190.12</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>31.686666666666667</v>
+      </c>
+      <c r="H15">
+        <v>31.686666666666667</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -60016,8 +60108,15 @@
       <c r="F16">
         <v>152.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>25.386666666666667</v>
+      </c>
+      <c r="H16">
+        <v>25.386666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>6</v>
       </c>
@@ -60036,8 +60135,15 @@
       <c r="F17">
         <v>132.91999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>22.153333333333332</v>
+      </c>
+      <c r="H17">
+        <v>22.153333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -60056,8 +60162,15 @@
       <c r="F18">
         <v>133.68</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>22.28</v>
+      </c>
+      <c r="H18">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6</v>
       </c>
@@ -60076,8 +60189,15 @@
       <c r="F19">
         <v>113.72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18.953333333333333</v>
+      </c>
+      <c r="H19">
+        <v>18.953333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>6</v>
       </c>
@@ -60096,8 +60216,15 @@
       <c r="F20">
         <v>114.32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>19.053333333333331</v>
+      </c>
+      <c r="H20">
+        <v>19.053333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -60116,8 +60243,15 @@
       <c r="F21">
         <v>114.72</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>19.12</v>
+      </c>
+      <c r="H21">
+        <v>19.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>6</v>
       </c>
@@ -60136,8 +60270,15 @@
       <c r="F22">
         <v>113.94</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H22">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -60156,8 +60297,15 @@
       <c r="F23">
         <v>114.26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>19.043333333333333</v>
+      </c>
+      <c r="H23">
+        <v>19.043333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6</v>
       </c>
@@ -60176,8 +60324,15 @@
       <c r="F24">
         <v>113.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>18.983333333333334</v>
+      </c>
+      <c r="H24">
+        <v>18.983333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -60196,8 +60351,15 @@
       <c r="F25">
         <v>136.30000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>22.716666666666669</v>
+      </c>
+      <c r="H25">
+        <v>22.716666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>6</v>
       </c>
@@ -60216,8 +60378,15 @@
       <c r="F26">
         <v>118.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>19.816666666666666</v>
+      </c>
+      <c r="H26">
+        <v>19.816666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>8</v>
       </c>
@@ -60236,8 +60405,15 @@
       <c r="F27">
         <v>220.24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>27.53</v>
+      </c>
+      <c r="H27">
+        <v>27.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>8</v>
       </c>
@@ -60256,8 +60432,15 @@
       <c r="F28">
         <v>172.76</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>21.594999999999999</v>
+      </c>
+      <c r="H28">
+        <v>21.594999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>8</v>
       </c>
@@ -60276,8 +60459,15 @@
       <c r="F29">
         <v>157.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>19.645</v>
+      </c>
+      <c r="H29">
+        <v>19.645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>8</v>
       </c>
@@ -60296,8 +60486,15 @@
       <c r="F30">
         <v>141.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>17.6875</v>
+      </c>
+      <c r="H30">
+        <v>17.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>8</v>
       </c>
@@ -60316,8 +60513,15 @@
       <c r="F31">
         <v>141.94</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>17.7425</v>
+      </c>
+      <c r="H31">
+        <v>17.7425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>8</v>
       </c>
@@ -60336,8 +60540,15 @@
       <c r="F32">
         <v>141.41999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>17.677499999999998</v>
+      </c>
+      <c r="H32">
+        <v>17.677499999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>8</v>
       </c>
@@ -60356,8 +60567,15 @@
       <c r="F33">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="H33">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>8</v>
       </c>
@@ -60376,8 +60594,15 @@
       <c r="F34">
         <v>126.06</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>15.7575</v>
+      </c>
+      <c r="H34">
+        <v>15.7575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>8</v>
       </c>
@@ -60396,8 +60621,15 @@
       <c r="F35">
         <v>126.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>15.762499999999999</v>
+      </c>
+      <c r="H35">
+        <v>15.762499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>8</v>
       </c>
@@ -60416,8 +60648,15 @@
       <c r="F36">
         <v>125.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>15.69</v>
+      </c>
+      <c r="H36">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>8</v>
       </c>
@@ -60436,8 +60675,15 @@
       <c r="F37">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="H37">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -60456,8 +60702,15 @@
       <c r="F38">
         <v>125.62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>15.702500000000001</v>
+      </c>
+      <c r="H38">
+        <v>15.702500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>12</v>
       </c>
@@ -60476,8 +60729,15 @@
       <c r="F39">
         <v>579.52</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>48.293333333333329</v>
+      </c>
+      <c r="H39">
+        <v>48.293333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>12</v>
       </c>
@@ -60496,8 +60756,15 @@
       <c r="F40">
         <v>377.86</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>31.488333333333333</v>
+      </c>
+      <c r="H40">
+        <v>31.488333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>12</v>
       </c>
@@ -60516,8 +60783,15 @@
       <c r="F41">
         <v>493.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>41.11</v>
+      </c>
+      <c r="H41">
+        <v>41.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>12</v>
       </c>
@@ -60536,8 +60810,15 @@
       <c r="F42">
         <v>330.28</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>27.52333333333333</v>
+      </c>
+      <c r="H42">
+        <v>27.52333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>12</v>
       </c>
@@ -60556,8 +60837,15 @@
       <c r="F43">
         <v>324.86</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>27.071666666666669</v>
+      </c>
+      <c r="H43">
+        <v>27.071666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>12</v>
       </c>
@@ -60576,8 +60864,15 @@
       <c r="F44">
         <v>327.54000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>27.295000000000002</v>
+      </c>
+      <c r="H44">
+        <v>27.295000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>12</v>
       </c>
@@ -60596,8 +60891,15 @@
       <c r="F45">
         <v>248.16</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>20.68</v>
+      </c>
+      <c r="H45">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>12</v>
       </c>
@@ -60616,8 +60918,15 @@
       <c r="F46">
         <v>266.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>22.206666666666667</v>
+      </c>
+      <c r="H46">
+        <v>22.206666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>12</v>
       </c>
@@ -60636,8 +60945,15 @@
       <c r="F47">
         <v>317.08</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>26.423333333333332</v>
+      </c>
+      <c r="H47">
+        <v>26.423333333333332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>12</v>
       </c>
@@ -60655,6 +60971,13 @@
       </c>
       <c r="F48">
         <v>227.96</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>18.996666666666666</v>
+      </c>
+      <c r="H48">
+        <v>18.996666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.45">
@@ -60676,6 +60999,13 @@
       <c r="F49">
         <v>261.62</v>
       </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>21.801666666666666</v>
+      </c>
+      <c r="H49">
+        <v>21.801666666666666</v>
+      </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
@@ -60696,6 +61026,13 @@
       <c r="F50">
         <v>398.04</v>
       </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>33.17</v>
+      </c>
+      <c r="H50">
+        <v>33.17</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
@@ -60716,6 +61053,13 @@
       <c r="F51">
         <v>569.24</v>
       </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>35.577500000000001</v>
+      </c>
+      <c r="H51">
+        <v>35.577500000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
@@ -60736,6 +61080,13 @@
       <c r="F52">
         <v>438.22</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>27.388750000000002</v>
+      </c>
+      <c r="H52">
+        <v>27.388750000000002</v>
+      </c>
       <c r="J52">
         <v>1</v>
       </c>
@@ -60792,44 +61143,51 @@
       <c r="F53">
         <v>381.04</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>23.815000000000001</v>
+      </c>
+      <c r="H53">
+        <v>23.815000000000001</v>
+      </c>
       <c r="I53">
         <v>4</v>
       </c>
       <c r="J53">
-        <v>114.22</v>
+        <v>28.555</v>
       </c>
       <c r="K53">
-        <v>94.5</v>
+        <v>23.625</v>
       </c>
       <c r="L53">
-        <v>76.08</v>
+        <v>19.02</v>
       </c>
       <c r="M53">
-        <v>76.12</v>
+        <v>19.03</v>
       </c>
       <c r="N53">
-        <v>75.92</v>
+        <v>18.98</v>
       </c>
       <c r="O53">
-        <v>75.819999999999993</v>
+        <v>18.954999999999998</v>
       </c>
       <c r="P53">
-        <v>75.760000000000005</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="Q53">
-        <v>75.98</v>
+        <v>18.995000000000001</v>
       </c>
       <c r="R53">
-        <v>76.44</v>
+        <v>19.11</v>
       </c>
       <c r="S53">
-        <v>75.52</v>
+        <v>18.88</v>
       </c>
       <c r="T53">
-        <v>76.34</v>
+        <v>19.085000000000001</v>
       </c>
       <c r="U53">
-        <v>76.22</v>
+        <v>19.055</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.45">
@@ -60851,44 +61209,51 @@
       <c r="F54">
         <v>362.3</v>
       </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>22.643750000000001</v>
+      </c>
+      <c r="H54">
+        <v>22.643750000000001</v>
+      </c>
       <c r="I54">
         <v>6</v>
       </c>
       <c r="J54">
-        <v>189.74</v>
+        <v>31.623333333333335</v>
       </c>
       <c r="K54">
-        <v>151.6</v>
+        <v>25.266666666666666</v>
       </c>
       <c r="L54">
-        <v>132.84</v>
+        <v>22.14</v>
       </c>
       <c r="M54">
-        <v>133.1</v>
+        <v>22.183333333333334</v>
       </c>
       <c r="N54">
-        <v>114.14</v>
+        <v>19.023333333333333</v>
       </c>
       <c r="O54">
-        <v>113.96</v>
+        <v>18.993333333333332</v>
       </c>
       <c r="P54">
-        <v>114.32</v>
+        <v>19.053333333333331</v>
       </c>
       <c r="Q54">
-        <v>114.34</v>
+        <v>19.056666666666668</v>
       </c>
       <c r="R54">
-        <v>114.04</v>
+        <v>19.006666666666668</v>
       </c>
       <c r="S54">
-        <v>114.54</v>
+        <v>19.09</v>
       </c>
       <c r="T54">
-        <v>137.34</v>
+        <v>22.89</v>
       </c>
       <c r="U54">
-        <v>119.62</v>
+        <v>19.936666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.45">
@@ -60910,44 +61275,51 @@
       <c r="F55">
         <v>343.16</v>
       </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>21.447500000000002</v>
+      </c>
+      <c r="H55">
+        <v>21.447500000000002</v>
+      </c>
       <c r="I55">
         <v>8</v>
       </c>
       <c r="J55">
-        <v>221.08</v>
+        <v>27.635000000000002</v>
       </c>
       <c r="K55">
-        <v>172.94</v>
+        <v>21.6175</v>
       </c>
       <c r="L55">
-        <v>157.24</v>
+        <v>19.655000000000001</v>
       </c>
       <c r="M55">
-        <v>142.08000000000001</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="N55">
-        <v>142.24</v>
+        <v>17.78</v>
       </c>
       <c r="O55">
-        <v>141.68</v>
+        <v>17.71</v>
       </c>
       <c r="P55">
-        <v>126.16</v>
+        <v>15.77</v>
       </c>
       <c r="Q55">
-        <v>125.82</v>
+        <v>15.727499999999999</v>
       </c>
       <c r="R55">
-        <v>125.88</v>
+        <v>15.734999999999999</v>
       </c>
       <c r="S55">
-        <v>126.2</v>
+        <v>15.775</v>
       </c>
       <c r="T55">
-        <v>126.16</v>
+        <v>15.77</v>
       </c>
       <c r="U55">
-        <v>125.86</v>
+        <v>15.7325</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.45">
@@ -60969,44 +61341,51 @@
       <c r="F56">
         <v>343.44</v>
       </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>21.465</v>
+      </c>
+      <c r="H56">
+        <v>21.465</v>
+      </c>
       <c r="I56">
         <v>12</v>
       </c>
       <c r="J56">
-        <v>418.32</v>
+        <v>34.86</v>
       </c>
       <c r="K56">
-        <v>322.7</v>
+        <v>26.891666666666666</v>
       </c>
       <c r="L56">
-        <v>286.04000000000002</v>
+        <v>23.83666666666667</v>
       </c>
       <c r="M56">
-        <v>265.94</v>
+        <v>22.161666666666665</v>
       </c>
       <c r="N56">
-        <v>266.48</v>
+        <v>22.206666666666667</v>
       </c>
       <c r="O56">
-        <v>246.26</v>
+        <v>20.521666666666665</v>
       </c>
       <c r="P56">
-        <v>246.7</v>
+        <v>20.558333333333334</v>
       </c>
       <c r="Q56">
-        <v>247.36</v>
+        <v>20.613333333333333</v>
       </c>
       <c r="R56">
-        <v>227.88</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="S56">
-        <v>229.6</v>
+        <v>19.133333333333333</v>
       </c>
       <c r="T56">
-        <v>227.76</v>
+        <v>18.98</v>
       </c>
       <c r="U56">
-        <v>227.58</v>
+        <v>18.965</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.45">
@@ -61028,44 +61407,51 @@
       <c r="F57">
         <v>344.2</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>21.512499999999999</v>
+      </c>
+      <c r="H57">
+        <v>21.512499999999999</v>
+      </c>
       <c r="I57">
         <v>16</v>
       </c>
       <c r="J57">
-        <v>570.84</v>
+        <v>35.677500000000002</v>
       </c>
       <c r="K57">
-        <v>437.12</v>
+        <v>27.32</v>
       </c>
       <c r="L57">
-        <v>380.22</v>
+        <v>23.763750000000002</v>
       </c>
       <c r="M57">
-        <v>361.1</v>
+        <v>22.568750000000001</v>
       </c>
       <c r="N57">
-        <v>342.62</v>
+        <v>21.41375</v>
       </c>
       <c r="O57">
-        <v>342.6</v>
+        <v>21.412500000000001</v>
       </c>
       <c r="P57">
-        <v>343</v>
+        <v>21.4375</v>
       </c>
       <c r="Q57">
-        <v>323.82</v>
+        <v>20.23875</v>
       </c>
       <c r="R57">
-        <v>304.27999999999997</v>
+        <v>19.017499999999998</v>
       </c>
       <c r="S57">
-        <v>304.18</v>
+        <v>19.01125</v>
       </c>
       <c r="T57">
-        <v>302.77999999999997</v>
+        <v>18.923749999999998</v>
       </c>
       <c r="U57">
-        <v>304.44</v>
+        <v>19.0275</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.45">
@@ -61087,44 +61473,51 @@
       <c r="F58">
         <v>325.45999999999998</v>
       </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>20.341249999999999</v>
+      </c>
+      <c r="H58">
+        <v>20.341249999999999</v>
+      </c>
       <c r="I58">
         <v>32</v>
       </c>
       <c r="J58">
-        <v>1180.42</v>
+        <v>36.888125000000002</v>
       </c>
       <c r="K58">
-        <v>909.04</v>
+        <v>28.407499999999999</v>
       </c>
       <c r="L58">
-        <v>803.56</v>
+        <v>25.111249999999998</v>
       </c>
       <c r="M58">
-        <v>739.52</v>
+        <v>23.11</v>
       </c>
       <c r="N58">
-        <v>778.6</v>
+        <v>24.331250000000001</v>
       </c>
       <c r="O58">
-        <v>704.48</v>
+        <v>22.015000000000001</v>
       </c>
       <c r="P58">
-        <v>684.76</v>
+        <v>21.39875</v>
       </c>
       <c r="Q58">
-        <v>665.74</v>
+        <v>20.804375</v>
       </c>
       <c r="R58">
-        <v>628.24</v>
+        <v>19.6325</v>
       </c>
       <c r="S58">
-        <v>614.22</v>
+        <v>19.194375000000001</v>
       </c>
       <c r="T58">
-        <v>611.16</v>
+        <v>19.098749999999999</v>
       </c>
       <c r="U58">
-        <v>612.98</v>
+        <v>19.155625000000001</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.45">
@@ -61146,44 +61539,51 @@
       <c r="F59">
         <v>303.89999999999998</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>18.993749999999999</v>
+      </c>
+      <c r="H59">
+        <v>18.993749999999999</v>
+      </c>
       <c r="I59">
         <v>64</v>
       </c>
       <c r="J59">
-        <v>2513</v>
+        <v>39.265625</v>
       </c>
       <c r="K59">
-        <v>1894</v>
+        <v>29.59375</v>
       </c>
       <c r="L59">
-        <v>1611.58</v>
+        <v>25.180937499999999</v>
       </c>
       <c r="M59">
-        <v>1509.7</v>
+        <v>23.589062500000001</v>
       </c>
       <c r="N59">
-        <v>1457.42</v>
+        <v>22.772187500000001</v>
       </c>
       <c r="O59">
-        <v>1474.34</v>
+        <v>23.036562499999999</v>
       </c>
       <c r="P59">
-        <v>1375.98</v>
+        <v>21.4996875</v>
       </c>
       <c r="Q59">
-        <v>1356.32</v>
+        <v>21.192499999999999</v>
       </c>
       <c r="R59">
-        <v>1277.44</v>
+        <v>19.96</v>
       </c>
       <c r="S59">
-        <v>1300.2</v>
+        <v>20.315625000000001</v>
       </c>
       <c r="T59">
-        <v>1218.78</v>
+        <v>19.0434375</v>
       </c>
       <c r="U59">
-        <v>1215.8</v>
+        <v>18.996874999999999</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.45">
@@ -61205,6 +61605,13 @@
       <c r="F60">
         <v>304.08</v>
       </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>19.004999999999999</v>
+      </c>
+      <c r="H60">
+        <v>19.004999999999999</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
@@ -61225,6 +61632,13 @@
       <c r="F61">
         <v>304.62</v>
       </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>19.03875</v>
+      </c>
+      <c r="H61">
+        <v>19.03875</v>
+      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
@@ -61245,6 +61659,13 @@
       <c r="F62">
         <v>304.54000000000002</v>
       </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>19.033750000000001</v>
+      </c>
+      <c r="H62">
+        <v>19.033750000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
@@ -61265,6 +61686,13 @@
       <c r="F63">
         <v>1459.46</v>
       </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>45.608125000000001</v>
+      </c>
+      <c r="H63">
+        <v>45.608125000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
@@ -61285,8 +61713,15 @@
       <c r="F64">
         <v>898.62</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>28.081875</v>
+      </c>
+      <c r="H64">
+        <v>28.081875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>32</v>
       </c>
@@ -61305,8 +61740,15 @@
       <c r="F65">
         <v>798.48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>24.952500000000001</v>
+      </c>
+      <c r="H65">
+        <v>24.952500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>32</v>
       </c>
@@ -61325,8 +61767,15 @@
       <c r="F66">
         <v>742.36</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>23.19875</v>
+      </c>
+      <c r="H66">
+        <v>23.19875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>32</v>
       </c>
@@ -61345,8 +61794,15 @@
       <c r="F67">
         <v>743.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>23.243749999999999</v>
+      </c>
+      <c r="H67">
+        <v>23.243749999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>32</v>
       </c>
@@ -61365,8 +61821,15 @@
       <c r="F68">
         <v>708.08</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G68">
+        <f t="shared" ref="G68:H86" si="1">F68/A68</f>
+        <v>22.127500000000001</v>
+      </c>
+      <c r="H68">
+        <v>22.127500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>32</v>
       </c>
@@ -61385,8 +61848,15 @@
       <c r="F69">
         <v>686.98</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>21.468125000000001</v>
+      </c>
+      <c r="H69">
+        <v>21.468125000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>32</v>
       </c>
@@ -61405,8 +61875,15 @@
       <c r="F70">
         <v>667.48</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>20.858750000000001</v>
+      </c>
+      <c r="H70">
+        <v>20.858750000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>32</v>
       </c>
@@ -61425,8 +61902,15 @@
       <c r="F71">
         <v>628.08000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>19.627500000000001</v>
+      </c>
+      <c r="H71">
+        <v>19.627500000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>32</v>
       </c>
@@ -61445,8 +61929,15 @@
       <c r="F72">
         <v>611.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>19.106249999999999</v>
+      </c>
+      <c r="H72">
+        <v>19.106249999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>32</v>
       </c>
@@ -61465,8 +61956,15 @@
       <c r="F73">
         <v>611.98</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>19.124375000000001</v>
+      </c>
+      <c r="H73">
+        <v>19.124375000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>32</v>
       </c>
@@ -61485,8 +61983,15 @@
       <c r="F74">
         <v>612.54</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>19.141874999999999</v>
+      </c>
+      <c r="H74">
+        <v>19.141874999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>64</v>
       </c>
@@ -61505,8 +62010,15 @@
       <c r="F75">
         <v>7230.02</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>112.96906250000001</v>
+      </c>
+      <c r="H75">
+        <v>112.96906250000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>64</v>
       </c>
@@ -61525,8 +62037,15 @@
       <c r="F76">
         <v>3000.62</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>46.884687499999998</v>
+      </c>
+      <c r="H76">
+        <v>46.884687499999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>64</v>
       </c>
@@ -61545,8 +62064,15 @@
       <c r="F77">
         <v>1812.18</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>28.315312500000001</v>
+      </c>
+      <c r="H77">
+        <v>28.315312500000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>64</v>
       </c>
@@ -61565,8 +62091,15 @@
       <c r="F78">
         <v>1511.26</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>23.6134375</v>
+      </c>
+      <c r="H78">
+        <v>23.6134375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>64</v>
       </c>
@@ -61585,8 +62118,15 @@
       <c r="F79">
         <v>1515.04</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>23.672499999999999</v>
+      </c>
+      <c r="H79">
+        <v>23.672499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>64</v>
       </c>
@@ -61605,8 +62145,15 @@
       <c r="F80">
         <v>1420.28</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>22.191875</v>
+      </c>
+      <c r="H80">
+        <v>22.191875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>64</v>
       </c>
@@ -61625,8 +62172,15 @@
       <c r="F81">
         <v>1375.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>21.496874999999999</v>
+      </c>
+      <c r="H81">
+        <v>21.496874999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>64</v>
       </c>
@@ -61645,8 +62199,15 @@
       <c r="F82">
         <v>1357.02</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>21.2034375</v>
+      </c>
+      <c r="H82">
+        <v>21.2034375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>64</v>
       </c>
@@ -61665,8 +62226,15 @@
       <c r="F83">
         <v>1281.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>20.028124999999999</v>
+      </c>
+      <c r="H83">
+        <v>20.028124999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>64</v>
       </c>
@@ -61685,8 +62253,15 @@
       <c r="F84">
         <v>1240.98</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>19.3903125</v>
+      </c>
+      <c r="H84">
+        <v>19.3903125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>64</v>
       </c>
@@ -61705,8 +62280,15 @@
       <c r="F85">
         <v>1234.46</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>19.288437500000001</v>
+      </c>
+      <c r="H85">
+        <v>19.288437500000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>64</v>
       </c>
@@ -61725,8 +62307,15 @@
       <c r="F86">
         <v>1227.06</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>19.172812499999999</v>
+      </c>
+      <c r="H86">
+        <v>19.172812499999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>4</v>
       </c>
@@ -61745,8 +62334,15 @@
       <c r="F88">
         <v>114.22</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G88">
+        <f t="shared" ref="G88:H151" si="2">F88/A88</f>
+        <v>28.555</v>
+      </c>
+      <c r="H88">
+        <v>28.555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>4</v>
       </c>
@@ -61765,8 +62361,15 @@
       <c r="F89">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>23.625</v>
+      </c>
+      <c r="H89">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>4</v>
       </c>
@@ -61785,8 +62388,15 @@
       <c r="F90">
         <v>76.08</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>19.02</v>
+      </c>
+      <c r="H90">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>4</v>
       </c>
@@ -61805,8 +62415,15 @@
       <c r="F91">
         <v>76.12</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>19.03</v>
+      </c>
+      <c r="H91">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -61825,8 +62442,15 @@
       <c r="F92">
         <v>75.92</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>18.98</v>
+      </c>
+      <c r="H92">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -61845,8 +62469,15 @@
       <c r="F93">
         <v>75.819999999999993</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>18.954999999999998</v>
+      </c>
+      <c r="H93">
+        <v>18.954999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -61865,8 +62496,15 @@
       <c r="F94">
         <v>75.760000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>18.940000000000001</v>
+      </c>
+      <c r="H94">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -61885,8 +62523,15 @@
       <c r="F95">
         <v>75.98</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>18.995000000000001</v>
+      </c>
+      <c r="H95">
+        <v>18.995000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -61905,8 +62550,15 @@
       <c r="F96">
         <v>76.44</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>19.11</v>
+      </c>
+      <c r="H96">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -61925,8 +62577,15 @@
       <c r="F97">
         <v>75.52</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>18.88</v>
+      </c>
+      <c r="H97">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -61945,8 +62604,15 @@
       <c r="F98">
         <v>76.34</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>19.085000000000001</v>
+      </c>
+      <c r="H98">
+        <v>19.085000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -61965,8 +62631,15 @@
       <c r="F99">
         <v>76.22</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>19.055</v>
+      </c>
+      <c r="H99">
+        <v>19.055</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>6</v>
       </c>
@@ -61985,8 +62658,15 @@
       <c r="F100">
         <v>189.74</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>31.623333333333335</v>
+      </c>
+      <c r="H100">
+        <v>31.623333333333335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6</v>
       </c>
@@ -62005,8 +62685,15 @@
       <c r="F101">
         <v>151.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>25.266666666666666</v>
+      </c>
+      <c r="H101">
+        <v>25.266666666666666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6</v>
       </c>
@@ -62025,8 +62712,15 @@
       <c r="F102">
         <v>132.84</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>22.14</v>
+      </c>
+      <c r="H102">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6</v>
       </c>
@@ -62045,8 +62739,15 @@
       <c r="F103">
         <v>133.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>22.183333333333334</v>
+      </c>
+      <c r="H103">
+        <v>22.183333333333334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6</v>
       </c>
@@ -62065,8 +62766,15 @@
       <c r="F104">
         <v>114.14</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>19.023333333333333</v>
+      </c>
+      <c r="H104">
+        <v>19.023333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6</v>
       </c>
@@ -62085,8 +62793,15 @@
       <c r="F105">
         <v>113.96</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>18.993333333333332</v>
+      </c>
+      <c r="H105">
+        <v>18.993333333333332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>6</v>
       </c>
@@ -62105,8 +62820,15 @@
       <c r="F106">
         <v>114.32</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>19.053333333333331</v>
+      </c>
+      <c r="H106">
+        <v>19.053333333333331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6</v>
       </c>
@@ -62125,8 +62847,15 @@
       <c r="F107">
         <v>114.34</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>19.056666666666668</v>
+      </c>
+      <c r="H107">
+        <v>19.056666666666668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>6</v>
       </c>
@@ -62145,8 +62874,15 @@
       <c r="F108">
         <v>114.04</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>19.006666666666668</v>
+      </c>
+      <c r="H108">
+        <v>19.006666666666668</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>6</v>
       </c>
@@ -62165,8 +62901,15 @@
       <c r="F109">
         <v>114.54</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>19.09</v>
+      </c>
+      <c r="H109">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>6</v>
       </c>
@@ -62185,8 +62928,15 @@
       <c r="F110">
         <v>137.34</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>22.89</v>
+      </c>
+      <c r="H110">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>6</v>
       </c>
@@ -62205,8 +62955,15 @@
       <c r="F111">
         <v>119.62</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>19.936666666666667</v>
+      </c>
+      <c r="H111">
+        <v>19.936666666666667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>8</v>
       </c>
@@ -62225,8 +62982,15 @@
       <c r="F112">
         <v>221.08</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>27.635000000000002</v>
+      </c>
+      <c r="H112">
+        <v>27.635000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>8</v>
       </c>
@@ -62245,8 +63009,15 @@
       <c r="F113">
         <v>172.94</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>21.6175</v>
+      </c>
+      <c r="H113">
+        <v>21.6175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>8</v>
       </c>
@@ -62265,8 +63036,15 @@
       <c r="F114">
         <v>157.24</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>19.655000000000001</v>
+      </c>
+      <c r="H114">
+        <v>19.655000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>8</v>
       </c>
@@ -62285,8 +63063,15 @@
       <c r="F115">
         <v>142.08000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="H115">
+        <v>17.760000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>8</v>
       </c>
@@ -62305,8 +63090,15 @@
       <c r="F116">
         <v>142.24</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>17.78</v>
+      </c>
+      <c r="H116">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>8</v>
       </c>
@@ -62325,8 +63117,15 @@
       <c r="F117">
         <v>141.68</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>17.71</v>
+      </c>
+      <c r="H117">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>8</v>
       </c>
@@ -62345,8 +63144,15 @@
       <c r="F118">
         <v>126.16</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>15.77</v>
+      </c>
+      <c r="H118">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>8</v>
       </c>
@@ -62365,8 +63171,15 @@
       <c r="F119">
         <v>125.82</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>15.727499999999999</v>
+      </c>
+      <c r="H119">
+        <v>15.727499999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>8</v>
       </c>
@@ -62385,8 +63198,15 @@
       <c r="F120">
         <v>125.88</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>15.734999999999999</v>
+      </c>
+      <c r="H120">
+        <v>15.734999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>8</v>
       </c>
@@ -62405,8 +63225,15 @@
       <c r="F121">
         <v>126.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>15.775</v>
+      </c>
+      <c r="H121">
+        <v>15.775</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>8</v>
       </c>
@@ -62425,8 +63252,15 @@
       <c r="F122">
         <v>126.16</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>15.77</v>
+      </c>
+      <c r="H122">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>8</v>
       </c>
@@ -62445,8 +63279,15 @@
       <c r="F123">
         <v>125.86</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>15.7325</v>
+      </c>
+      <c r="H123">
+        <v>15.7325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>12</v>
       </c>
@@ -62465,8 +63306,15 @@
       <c r="F124">
         <v>418.32</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>34.86</v>
+      </c>
+      <c r="H124">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>12</v>
       </c>
@@ -62485,8 +63333,15 @@
       <c r="F125">
         <v>322.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>26.891666666666666</v>
+      </c>
+      <c r="H125">
+        <v>26.891666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>12</v>
       </c>
@@ -62505,8 +63360,15 @@
       <c r="F126">
         <v>286.04000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>23.83666666666667</v>
+      </c>
+      <c r="H126">
+        <v>23.83666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>12</v>
       </c>
@@ -62525,8 +63387,15 @@
       <c r="F127">
         <v>265.94</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>22.161666666666665</v>
+      </c>
+      <c r="H127">
+        <v>22.161666666666665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>12</v>
       </c>
@@ -62545,8 +63414,15 @@
       <c r="F128">
         <v>266.48</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>22.206666666666667</v>
+      </c>
+      <c r="H128">
+        <v>22.206666666666667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>12</v>
       </c>
@@ -62565,8 +63441,15 @@
       <c r="F129">
         <v>246.26</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>20.521666666666665</v>
+      </c>
+      <c r="H129">
+        <v>20.521666666666665</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>12</v>
       </c>
@@ -62585,8 +63468,15 @@
       <c r="F130">
         <v>246.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>20.558333333333334</v>
+      </c>
+      <c r="H130">
+        <v>20.558333333333334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>12</v>
       </c>
@@ -62605,8 +63495,15 @@
       <c r="F131">
         <v>247.36</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>20.613333333333333</v>
+      </c>
+      <c r="H131">
+        <v>20.613333333333333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>12</v>
       </c>
@@ -62625,8 +63522,15 @@
       <c r="F132">
         <v>227.88</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H132">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>12</v>
       </c>
@@ -62645,8 +63549,15 @@
       <c r="F133">
         <v>229.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>19.133333333333333</v>
+      </c>
+      <c r="H133">
+        <v>19.133333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>12</v>
       </c>
@@ -62665,8 +63576,15 @@
       <c r="F134">
         <v>227.76</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>18.98</v>
+      </c>
+      <c r="H134">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>12</v>
       </c>
@@ -62685,8 +63603,15 @@
       <c r="F135">
         <v>227.58</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>18.965</v>
+      </c>
+      <c r="H135">
+        <v>18.965</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>16</v>
       </c>
@@ -62705,8 +63630,15 @@
       <c r="F136">
         <v>570.84</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>35.677500000000002</v>
+      </c>
+      <c r="H136">
+        <v>35.677500000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>16</v>
       </c>
@@ -62725,8 +63657,15 @@
       <c r="F137">
         <v>437.12</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>27.32</v>
+      </c>
+      <c r="H137">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>16</v>
       </c>
@@ -62745,8 +63684,15 @@
       <c r="F138">
         <v>380.22</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>23.763750000000002</v>
+      </c>
+      <c r="H138">
+        <v>23.763750000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>16</v>
       </c>
@@ -62765,8 +63711,15 @@
       <c r="F139">
         <v>361.1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>22.568750000000001</v>
+      </c>
+      <c r="H139">
+        <v>22.568750000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>16</v>
       </c>
@@ -62785,8 +63738,15 @@
       <c r="F140">
         <v>342.62</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>21.41375</v>
+      </c>
+      <c r="H140">
+        <v>21.41375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>16</v>
       </c>
@@ -62805,8 +63765,15 @@
       <c r="F141">
         <v>342.6</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>21.412500000000001</v>
+      </c>
+      <c r="H141">
+        <v>21.412500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>16</v>
       </c>
@@ -62825,8 +63792,15 @@
       <c r="F142">
         <v>343</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>21.4375</v>
+      </c>
+      <c r="H142">
+        <v>21.4375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>16</v>
       </c>
@@ -62845,8 +63819,15 @@
       <c r="F143">
         <v>323.82</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>20.23875</v>
+      </c>
+      <c r="H143">
+        <v>20.23875</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>16</v>
       </c>
@@ -62865,8 +63846,15 @@
       <c r="F144">
         <v>304.27999999999997</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>19.017499999999998</v>
+      </c>
+      <c r="H144">
+        <v>19.017499999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>16</v>
       </c>
@@ -62885,8 +63873,15 @@
       <c r="F145">
         <v>304.18</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>19.01125</v>
+      </c>
+      <c r="H145">
+        <v>19.01125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>16</v>
       </c>
@@ -62905,8 +63900,15 @@
       <c r="F146">
         <v>302.77999999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>18.923749999999998</v>
+      </c>
+      <c r="H146">
+        <v>18.923749999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>16</v>
       </c>
@@ -62925,8 +63927,15 @@
       <c r="F147">
         <v>304.44</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>19.0275</v>
+      </c>
+      <c r="H147">
+        <v>19.0275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>32</v>
       </c>
@@ -62945,8 +63954,15 @@
       <c r="F148">
         <v>1180.42</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>36.888125000000002</v>
+      </c>
+      <c r="H148">
+        <v>36.888125000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>32</v>
       </c>
@@ -62965,8 +63981,15 @@
       <c r="F149">
         <v>909.04</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>28.407499999999999</v>
+      </c>
+      <c r="H149">
+        <v>28.407499999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>32</v>
       </c>
@@ -62985,8 +64008,15 @@
       <c r="F150">
         <v>803.56</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>25.111249999999998</v>
+      </c>
+      <c r="H150">
+        <v>25.111249999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>32</v>
       </c>
@@ -63005,8 +64035,15 @@
       <c r="F151">
         <v>739.52</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>23.11</v>
+      </c>
+      <c r="H151">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>32</v>
       </c>
@@ -63025,8 +64062,15 @@
       <c r="F152">
         <v>778.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G152">
+        <f t="shared" ref="G152:H171" si="3">F152/A152</f>
+        <v>24.331250000000001</v>
+      </c>
+      <c r="H152">
+        <v>24.331250000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>32</v>
       </c>
@@ -63045,8 +64089,15 @@
       <c r="F153">
         <v>704.48</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G153">
+        <f t="shared" si="3"/>
+        <v>22.015000000000001</v>
+      </c>
+      <c r="H153">
+        <v>22.015000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>32</v>
       </c>
@@ -63065,8 +64116,15 @@
       <c r="F154">
         <v>684.76</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G154">
+        <f t="shared" si="3"/>
+        <v>21.39875</v>
+      </c>
+      <c r="H154">
+        <v>21.39875</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>32</v>
       </c>
@@ -63085,8 +64143,15 @@
       <c r="F155">
         <v>665.74</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G155">
+        <f t="shared" si="3"/>
+        <v>20.804375</v>
+      </c>
+      <c r="H155">
+        <v>20.804375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>32</v>
       </c>
@@ -63105,8 +64170,15 @@
       <c r="F156">
         <v>628.24</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G156">
+        <f t="shared" si="3"/>
+        <v>19.6325</v>
+      </c>
+      <c r="H156">
+        <v>19.6325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>32</v>
       </c>
@@ -63125,8 +64197,15 @@
       <c r="F157">
         <v>614.22</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G157">
+        <f t="shared" si="3"/>
+        <v>19.194375000000001</v>
+      </c>
+      <c r="H157">
+        <v>19.194375000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>32</v>
       </c>
@@ -63145,8 +64224,15 @@
       <c r="F158">
         <v>611.16</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G158">
+        <f t="shared" si="3"/>
+        <v>19.098749999999999</v>
+      </c>
+      <c r="H158">
+        <v>19.098749999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>32</v>
       </c>
@@ -63165,8 +64251,15 @@
       <c r="F159">
         <v>612.98</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G159">
+        <f t="shared" si="3"/>
+        <v>19.155625000000001</v>
+      </c>
+      <c r="H159">
+        <v>19.155625000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>64</v>
       </c>
@@ -63185,8 +64278,15 @@
       <c r="F160">
         <v>2513</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G160">
+        <f t="shared" si="3"/>
+        <v>39.265625</v>
+      </c>
+      <c r="H160">
+        <v>39.265625</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>64</v>
       </c>
@@ -63205,8 +64305,15 @@
       <c r="F161">
         <v>1894</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G161">
+        <f t="shared" si="3"/>
+        <v>29.59375</v>
+      </c>
+      <c r="H161">
+        <v>29.59375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>64</v>
       </c>
@@ -63225,8 +64332,15 @@
       <c r="F162">
         <v>1611.58</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>25.180937499999999</v>
+      </c>
+      <c r="H162">
+        <v>25.180937499999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>64</v>
       </c>
@@ -63245,8 +64359,15 @@
       <c r="F163">
         <v>1509.7</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>23.589062500000001</v>
+      </c>
+      <c r="H163">
+        <v>23.589062500000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>64</v>
       </c>
@@ -63265,8 +64386,15 @@
       <c r="F164">
         <v>1457.42</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>22.772187500000001</v>
+      </c>
+      <c r="H164">
+        <v>22.772187500000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>64</v>
       </c>
@@ -63285,8 +64413,15 @@
       <c r="F165">
         <v>1474.34</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G165">
+        <f t="shared" si="3"/>
+        <v>23.036562499999999</v>
+      </c>
+      <c r="H165">
+        <v>23.036562499999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>64</v>
       </c>
@@ -63305,8 +64440,15 @@
       <c r="F166">
         <v>1375.98</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G166">
+        <f t="shared" si="3"/>
+        <v>21.4996875</v>
+      </c>
+      <c r="H166">
+        <v>21.4996875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>64</v>
       </c>
@@ -63325,8 +64467,15 @@
       <c r="F167">
         <v>1356.32</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G167">
+        <f t="shared" si="3"/>
+        <v>21.192499999999999</v>
+      </c>
+      <c r="H167">
+        <v>21.192499999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>64</v>
       </c>
@@ -63345,8 +64494,15 @@
       <c r="F168">
         <v>1277.44</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G168">
+        <f t="shared" si="3"/>
+        <v>19.96</v>
+      </c>
+      <c r="H168">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>64</v>
       </c>
@@ -63365,8 +64521,15 @@
       <c r="F169">
         <v>1300.2</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G169">
+        <f t="shared" si="3"/>
+        <v>20.315625000000001</v>
+      </c>
+      <c r="H169">
+        <v>20.315625000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>64</v>
       </c>
@@ -63385,8 +64548,15 @@
       <c r="F170">
         <v>1218.78</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G170">
+        <f t="shared" si="3"/>
+        <v>19.0434375</v>
+      </c>
+      <c r="H170">
+        <v>19.0434375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>64</v>
       </c>
@@ -63404,6 +64574,13 @@
       </c>
       <c r="F171">
         <v>1215.8</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="3"/>
+        <v>18.996874999999999</v>
+      </c>
+      <c r="H171">
+        <v>18.996874999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TonyMason\Dropbox (Personal)\tony\research\perc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7138F037-E853-48BE-95F9-D93F268F599F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F72AFBF-D839-48E7-8ADE-9420BB27020E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23858" windowHeight="12750" activeTab="9" xr2:uid="{DDF11B55-9692-4DEB-8CAB-1DFB370BF851}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23858" windowHeight="12750" activeTab="10" xr2:uid="{DDF11B55-9692-4DEB-8CAB-1DFB370BF851}"/>
   </bookViews>
   <sheets>
     <sheet name="test 1" sheetId="1" r:id="rId1"/>
@@ -24248,8 +24248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397E236F-BC87-4E97-9698-9A9223673EC9}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="202" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25703,7 +25703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F345F6-30B4-4E51-B265-953BE7BA2275}">
   <dimension ref="A3:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
@@ -30873,7 +30873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18103467-FD3D-4FAB-9D44-6B842D7CADF6}">
   <dimension ref="A2:U169"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I32" sqref="I32:U39"/>
     </sheetView>
   </sheetViews>
